--- a/Definitions/o-Definitions-Cloud-Computing.xlsx
+++ b/Definitions/o-Definitions-Cloud-Computing.xlsx
@@ -8,15 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Google Cloud" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CC" sheetId="3" r:id="rId2"/>
+    <sheet name="Google Cloud" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Topic</t>
   </si>
@@ -31,6 +31,50 @@
   </si>
   <si>
     <t>Google Cloud Definitions</t>
+  </si>
+  <si>
+    <t>Cloud Computing Defintions</t>
+  </si>
+  <si>
+    <t>Cloud Computing - General Defintions</t>
+  </si>
+  <si>
+    <t>Categorization of Cloud Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Cloud Applications - called as a SAAS (Software As A Service) - Applications running in data centers owned by somebody else accessed via the internet. 
+2. Cloud Platforms - Foundations for cloud applications and more. They also provide computing resources at data centers across the internet. 
+3. Private Clouds - Cloud platform used by a single organization such as inside their on premises data centers.  </t>
+  </si>
+  <si>
+    <t>Cloud computing - Software As A Service</t>
+  </si>
+  <si>
+    <t>Idea of running applications in the cloud. This means running applications in data centers owned by third parties accessed via internet. We call this as public cloud. Running applications in the public cloud is commonly known as Software As A Service (SAAS). Cloud applications are accessed by users via internet.</t>
+  </si>
+  <si>
+    <t>Example of SAAS Applications and application providers</t>
+  </si>
+  <si>
+    <t>1. CRM by Salesforce
+2. Gmail, Google sites, Google docs, All Google apps - by Google
+3. SAP
+4. Lotus Live by IBM
+5. Fusion CRM by Oracle
+6. NetSuite
+7. Zoho</t>
+  </si>
+  <si>
+    <t>SAAS - Single Tenant Applications</t>
+  </si>
+  <si>
+    <t>Multiple users, Multiple customer organizations each are assigned their own copy of applications. Each have their own data too stored in some unique way. It gives customer more security. Customers can customize it in the way they like so customers generally likes this. But companies does not like this approach because if each customer has their own copy their is no cost savings.</t>
+  </si>
+  <si>
+    <t>SAAS - Multi Tenant Applications</t>
+  </si>
+  <si>
+    <t>Here also we will have multiple customers from multiple organizations but they all share single copy of application with their data typically intermingled in some way. Now the truth for large globally shared application there probably is more than one copy. Nonetheless, the point is applications are shared by multiple customers. From the point of view the provider of the application, this can be a big win because it gives them a simple world to update, to maintain, to work with and thus provides cost savings they can pass through the customers. The truth is customers often dont care. Customers are often attracted to the low price and other advantanges that Saas can bring. If customers to care they probably biased towards single tenancy. Nonethless, it is clear, going forward multi tenant applications are normal</t>
   </si>
 </sst>
 </file>
@@ -151,7 +195,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -161,6 +205,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -463,11 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,20 +530,109 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="CC!A1" display="Cloud Computing - General Defintions"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="73.85546875" customWidth="1"/>
+    <col min="2" max="2" width="112.140625" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7"/>
+    </row>
+    <row r="3" spans="1:2" ht="75">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="105">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="60">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="105">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="B1" location="CC!A2" display="Up"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
@@ -516,10 +653,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -531,16 +668,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Definitions/o-Definitions-Cloud-Computing.xlsx
+++ b/Definitions/o-Definitions-Cloud-Computing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Topic</t>
   </si>
@@ -54,6 +54,15 @@
   </si>
   <si>
     <t>Example of SAAS Applications and application providers</t>
+  </si>
+  <si>
+    <t>SAAS - Single Tenant Applications</t>
+  </si>
+  <si>
+    <t>SAAS - Multi Tenant Applications</t>
+  </si>
+  <si>
+    <t>Here also we will have multiple customers from multiple organizations but they all share single copy of application with their data typically intermingled in some way. Now the truth for large globally shared application there probably is more than one copy. Nonetheless, the point is applications are shared by multiple customers. From the point of view the provider of the application, this can be a big win because it gives them a simple world to update, to maintain, to work with and thus provides cost savings they can pass through the customers. The truth is customers often dont care. Customers are often attracted to the low price and other advantanges that Saas can bring. If customers do care they probably biased towards single tenancy. Nonethless, it is clear, going forward multi tenant applications are normal</t>
   </si>
   <si>
     <t>1. CRM by Salesforce
@@ -61,20 +70,309 @@
 3. SAP
 4. Lotus Live by IBM
 5. Fusion CRM by Oracle
-6. NetSuite
+6. NetSuite - offering CRM and ERP in the cloud platform
 7. Zoho</t>
   </si>
   <si>
-    <t>SAAS - Single Tenant Applications</t>
-  </si>
-  <si>
-    <t>Multiple users, Multiple customer organizations each are assigned their own copy of applications. Each have their own data too stored in some unique way. It gives customer more security. Customers can customize it in the way they like so customers generally likes this. But companies does not like this approach because if each customer has their own copy their is no cost savings.</t>
-  </si>
-  <si>
-    <t>SAAS - Multi Tenant Applications</t>
-  </si>
-  <si>
-    <t>Here also we will have multiple customers from multiple organizations but they all share single copy of application with their data typically intermingled in some way. Now the truth for large globally shared application there probably is more than one copy. Nonetheless, the point is applications are shared by multiple customers. From the point of view the provider of the application, this can be a big win because it gives them a simple world to update, to maintain, to work with and thus provides cost savings they can pass through the customers. The truth is customers often dont care. Customers are often attracted to the low price and other advantanges that Saas can bring. If customers to care they probably biased towards single tenancy. Nonethless, it is clear, going forward multi tenant applications are normal</t>
+    <t>Multiple users (or) multiple organizations, each are assigned their own copy of applications. Each have their own data too stored in some unique way. It gives customer more security. Customers can customize it in the way they like so customers generally likes this. But companies does not like this approach because if each customer has their own copy there is no cost savings.</t>
+  </si>
+  <si>
+    <t>1. Faster deployment. The ability to roll an application with no local installation is a huge advantage. Because SAAS apps running in the cloud, all we have to do is to give user a browser.  Open app in a browser and use it. Simple, clean, fast, cheap
+2. Most SAAS application offer usage based pricing. Rather than paying big check upfront, an organization pays by subscription per user per month. So less financial risk
+3. Many SASS application have option "tree free before you buy", so organization can truly determine whether business has true value before they invest big money.
+4. Reduce need for on premises resource. Organization can spend less on servers.
+5. Easier upgrades of application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Trusting SAAS provider for availability and data security. Every organization is very particular towards their data security in every aspect. Giving security choices and data to Google, Salesforce or Microsoft is a big concern
+For example, Salesforce CRM application will store sales price, sales leads, customer list, critical stuff etc. So organization trusting salesforce for their customer data is critical. But trusting is increasing due to successful applications
+2. Can raise legal and regulatory concerns with storing data outside customer premises
+3. Can limit customization if customers share multi tenant applications
+4. Hard to integrate SAAS applications with on premises applications
+5. Can have lower performance than on premises application performance. This is may not due to data center issue but network issue. </t>
+  </si>
+  <si>
+    <t>Benefits of SAAS for users</t>
+  </si>
+  <si>
+    <t>Risks of SAAS for users</t>
+  </si>
+  <si>
+    <t>Benefits of SAAS for vendor</t>
+  </si>
+  <si>
+    <t>1. Offers to reach new customer base by providing applications with cheaper cost
+2. Sell applications directly to business decision makers rather than third party IT orgnizations. For example software vendor went to customer and customer wants it but IT providers dont want it because they can't run the application.
+3. application sold on license based so can win big market
+4. Lower suppor cost and maintanance cost
+5. Provides developers more knowledge how customers use application which helps in developing new features or enhance existing features</t>
+  </si>
+  <si>
+    <t>Risks of SAAS for vendors</t>
+  </si>
+  <si>
+    <t>1. Must demonstrate real value upfront. Because users commonly have "try before you buy" option. User uses software for a while before writing a first cheque
+2. Per user per month will build revenue slowly
+3. Limits to sell customized applications
+4. new sales changes because customer dont want to store data outside premises
+5. Requires significant business change</t>
+  </si>
+  <si>
+    <t>Cloud Platform</t>
+  </si>
+  <si>
+    <t>Cloud platform provides an environment that developers can use to build appliations on, that users can use. It's common to build SAS applications on cloud platforms but it's not mandatory.</t>
+  </si>
+  <si>
+    <t>What is Cloud Platform</t>
+  </si>
+  <si>
+    <t>1. Cloud platforms are for developers. It allows developers to create, run applications, store data and more. It is a platform, not an app. Don't confuse cloud platform with cloud apps. Cloud platform is for developers. Cloud apps for users. 
+2. Cloud platform provides self service access to resources such as virtual machine or gigabytes of storage. commonly through browser interface.
+3. Allows fine grained allocation of resources.
+4. Allows charging only for resources an application uses</t>
+  </si>
+  <si>
+    <t>Benefits of Cloud Platform</t>
+  </si>
+  <si>
+    <t>1. Faster deployment. No need to wait for local computing resources.
+2. Usage based pricing.
+3. Less financial risks with lower upfront investment on hardware
+4. Reduces the need for on premises resources such as servers and IT staff
+5. Easier to upgrade</t>
+  </si>
+  <si>
+    <t>Risks of Cloud Platform</t>
+  </si>
+  <si>
+    <t>1. Security. Cloud Platform requires to trust cloud provider
+2. Regulatory issues on where data stored
+3. Can be harder to integrate with on premises aplications.
+4. Low performance when compared to on premises applications.
+5. Can give less control to developers than on premises development environment</t>
+  </si>
+  <si>
+    <t>Cloud Platforms 2 approaches</t>
+  </si>
+  <si>
+    <t>1. IAAS (Infra-structure As A Service)
+2. PAAS</t>
+  </si>
+  <si>
+    <t>IAAS (Infra-structure As A Service)</t>
+  </si>
+  <si>
+    <t>PAAS (Platform As A Service)</t>
+  </si>
+  <si>
+    <t>1. Users (like Developers) create VMs on demand from the library of VM images</t>
+  </si>
+  <si>
+    <t>Developers don't create VMs directly rather they provide an application to platform with platform them runs. Developers say "hey platform here is my app, run my app" 
+For example Amazon Machine Image AMIs. In AMI amazon provides a platform with DB, application server, load balancing etc. Developer only has to create schema and run the application by deploying the application in app server</t>
+  </si>
+  <si>
+    <t>Benefits of PAAS</t>
+  </si>
+  <si>
+    <t>1. Faster. Less work for developers to do
+2. Cheaper because there is no requirement for administration
+3. Lower risk</t>
+  </si>
+  <si>
+    <t>IAAS</t>
+  </si>
+  <si>
+    <t>Which one is popular in IAAS and PAAS?</t>
+  </si>
+  <si>
+    <t>Why IAAS is popular. What are drawbacks of PAAS?</t>
+  </si>
+  <si>
+    <t>1. PaaS is less famaliar. Iaas is just VM that we know like Linux and windows
+2. PaaS gives developers less control
+3. PaaS isn't identical to on premises environments
+4. PaaS supports less useful scenarios than IaaS
+Conclusion: IaaS is popular than PaaS</t>
+  </si>
+  <si>
+    <t>Cloud platform scenarios. For example we want to create application that runs on cloud. Which one is better. Lets check below:</t>
+  </si>
+  <si>
+    <t>Creating Cloud Native App</t>
+  </si>
+  <si>
+    <t>IAAS - Yes
+PAAS - Yes</t>
+  </si>
+  <si>
+    <t>Running HPC and Big Data Apps</t>
+  </si>
+  <si>
+    <t>IAAS - Yes
+PAAS - Since there are lots of parallel processing to do, may or may not be useful.</t>
+  </si>
+  <si>
+    <t>Existing web app from on premises to Cloud Platform</t>
+  </si>
+  <si>
+    <t>IAAS - Yes
+PAAS - may or may not work</t>
+  </si>
+  <si>
+    <t>Running standard packaged app like Sharepoint, SAP</t>
+  </si>
+  <si>
+    <t>IAAS - Yes
+PAAS - No</t>
+  </si>
+  <si>
+    <t>VMs for Dev/Test</t>
+  </si>
+  <si>
+    <t>Virtual Data Centers (VDC) - VMs on demand use</t>
+  </si>
+  <si>
+    <t>Disaster Recovery</t>
+  </si>
+  <si>
+    <t>Cloud Platforms examples</t>
+  </si>
+  <si>
+    <t>1. Compute - IaaS, PaaS
+2. Storage - Relational, NoSQL, Blob</t>
+  </si>
+  <si>
+    <t>Compute IaaS example</t>
+  </si>
+  <si>
+    <t>Compute PaaS Example</t>
+  </si>
+  <si>
+    <t>Storage Relational</t>
+  </si>
+  <si>
+    <t>Storage NoSQL</t>
+  </si>
+  <si>
+    <t>Storage Blobs</t>
+  </si>
+  <si>
+    <t>1. Relational Database Service (MySQLL/Oracle) by Amazon
+2. SQL Azure by Microsoft
+3. Cloud SQL by Google</t>
+  </si>
+  <si>
+    <t>1. Elastic Beanstalk by Amazon
+2. Azure by Microsoft
+3. Google App Engine
+4. AppForce, Heroku by SalesForce</t>
+  </si>
+  <si>
+    <t>1. SimpleDB, DynamoDB by Amazon
+2. Tables by Microsoft
+3. Datastore build on top of Google big table by Google 
+4. database.com by SalesForce</t>
+  </si>
+  <si>
+    <t>1. EC2 by Amazon
+2. Microsoft Privavate Cloud (hosters can adapt to offer IaaS)
+4.vCloud by VMWare (for hosters)
+5. OpenStack Compute (for hosters) by OpenStack</t>
+  </si>
+  <si>
+    <t>1. S3 by Amazon
+2. Blobs by Microsoft
+3. BlobStore by Google
+4. OpenStack Object Storage (for hosters) by OpenStack</t>
+  </si>
+  <si>
+    <t>What is Private Cloud</t>
+  </si>
+  <si>
+    <t>VM admins will have VM and Cloud Management tool. He creates upfront set of clouds, private clouds offering predefined services with predefined users, access rights and quotas. When we want a VM, we request it through self service portal(browser). Since cloud already creted with predefined VMs and accesses we will get immediately.</t>
+  </si>
+  <si>
+    <t>Private Cloud Benefits</t>
+  </si>
+  <si>
+    <t>Private Cloud Risks</t>
+  </si>
+  <si>
+    <t>1. Faster deployment of VMs and applications. 
+2. Reduced administrative costs because everything is automated no maintanance staff
+3. Fewer deployment errors because of automation
+4. Easier cost management. Per VM charges</t>
+  </si>
+  <si>
+    <t>1. VM admins finds it hard to trust users
+2. VM admins may resist having part of their job automated
+3. Defining standard services can be challenging since users want different things
+4. Changing operational processes is hard</t>
+  </si>
+  <si>
+    <t>Hybrid cloud</t>
+  </si>
+  <si>
+    <t>Private Cloud + Public cloud
+VMs will move between the two</t>
+  </si>
+  <si>
+    <t>Using Private Clouds: Examples</t>
+  </si>
+  <si>
+    <t>1. Giving Dev and QA team VMs on demand. Speeding up the process to get VMs</t>
+  </si>
+  <si>
+    <t>By VMWare</t>
+  </si>
+  <si>
+    <t>1. ESX/ESXi for Hypervisor
+2. vBlock for Converged infrastructure
+3. vCenter Server for VM Management
+4. vCloud Director for Cloud Management and Self Service Portal
+5. vCloud Express, vCloud datacenter for service providers to help them host public cloud IaaS that integrate with on-premises private clouds</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>1. Hyper-V, ESX, ESXi, Xen Server as Hypervisor
+2. Fast Track as converged infrastructure
+3. Virtual Machine Manager as VM Management and Cloud Management
+4. AppController, Service Managet as self service portal
+5. Service Provider program for service providers</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>1. ESX, ESXi as Hypervisor
+2. CloudSystemMatrix as converged infrastructure
+3. Cloud Service Automation as VM Management, Cloud management, self service portal
+4. Cloud System Service Provide for service providers</t>
+  </si>
+  <si>
+    <t>OpenStack</t>
+  </si>
+  <si>
+    <t>1. KVM, Xen as hypervisors
+2. OpenStack compute as vm management and cloud management and for service providers</t>
+  </si>
+  <si>
+    <t>Abiquo</t>
+  </si>
+  <si>
+    <t>1. ESX,ESXi, Xen, Hyper-V and many as hypervisors
+2. Abiquo enterprise edition as vm management, cloud management, self service portal
+3. Abiquo partner program for service providers</t>
+  </si>
+  <si>
+    <t>VMWare, Microsoft, HP, OpenStack, Abiquo</t>
+  </si>
+  <si>
+    <t>Some Private Cloud Examples</t>
   </si>
 </sst>
 </file>
@@ -195,7 +493,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -210,12 +508,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -549,17 +849,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" customWidth="1"/>
-    <col min="2" max="2" width="112.140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="70.28515625" customWidth="1"/>
+    <col min="2" max="2" width="116.7109375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
@@ -571,10 +871,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
     </row>
     <row r="3" spans="1:2" ht="75">
       <c r="A3" t="s">
@@ -597,28 +897,339 @@
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="120">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="135">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="105">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="90">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="75">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="75">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="75">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="9"/>
+    </row>
+    <row r="23" spans="1:2" ht="30">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="30">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="30">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="30">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30">
+      <c r="A30" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="60">
+      <c r="A31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="60">
+      <c r="A32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="45">
+      <c r="A33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="60">
+      <c r="A34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="60">
+      <c r="A35" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="45">
+      <c r="A36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="60">
+      <c r="A37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="60">
+      <c r="A38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="90">
+      <c r="A42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="75">
+      <c r="A43" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="60">
+      <c r="A44" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="30">
+      <c r="A45" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="45">
+      <c r="A46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
@@ -653,10 +1264,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/o-Definitions-Cloud-Computing.xlsx
+++ b/Definitions/o-Definitions-Cloud-Computing.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
   <si>
     <t>Topic</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>Some Private Cloud Examples</t>
+  </si>
+  <si>
+    <t>Why Cloud Computing</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -508,6 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -849,11 +853,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -871,10 +875,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2" ht="75">
       <c r="A3" t="s">
@@ -1029,10 +1033,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="10"/>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" t="s">
@@ -1224,6 +1228,11 @@
       </c>
       <c r="B46" s="5" t="s">
         <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1264,10 +1273,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Definitions/o-Definitions-Cloud-Computing.xlsx
+++ b/Definitions/o-Definitions-Cloud-Computing.xlsx
@@ -4,24 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="CC" sheetId="3" r:id="rId2"/>
-    <sheet name="Google Cloud" sheetId="2" r:id="rId3"/>
+    <sheet name="GC" sheetId="2" r:id="rId3"/>
+    <sheet name="CF" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>Topic</t>
-  </si>
-  <si>
-    <t>Google Cloud</t>
   </si>
   <si>
     <t>Topics</t>
@@ -377,12 +375,139 @@
   <si>
     <t>Why Cloud Computing</t>
   </si>
+  <si>
+    <t>Cloud Foundry (CF)</t>
+  </si>
+  <si>
+    <t>Google Cloud (GC)</t>
+  </si>
+  <si>
+    <t>Cloud Foundry Definitions</t>
+  </si>
+  <si>
+    <t>Cloud applications delivery model</t>
+  </si>
+  <si>
+    <t>1. IaaS
+2. PaaS - Cloud Foundry, OpenShift
+3. SaaS - developed software making it available in the internet</t>
+  </si>
+  <si>
+    <t>Why does Platform As A Service matters?</t>
+  </si>
+  <si>
+    <t>1. like new "middleware of cloud era". 
+2. application centric. Infrastructure is invisible
+3. Faster time to market
+4. DevOps Friendly
+5. Different runtimes, same environment</t>
+  </si>
+  <si>
+    <t>https://github.com/cloudfoundry/cli/releases</t>
+  </si>
+  <si>
+    <t>Get cloud foundry cli - Windows 64 bit from here</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Unzip it
+2. run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cf_installer.exe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Go to cmd and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cf -v  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>--&gt; we should see below output</t>
+    </r>
+  </si>
+  <si>
+    <t>C:\Users\Admin&gt;cf -v
+cf version 6.26.0+9c9a261.2017-04-06</t>
+  </si>
+  <si>
+    <t>Setting Pivotal account</t>
+  </si>
+  <si>
+    <t>https://run.pivotal.io/</t>
+  </si>
+  <si>
+    <t>Signup for 60 days free trail</t>
+  </si>
+  <si>
+    <t>Connect from local cmd (cf) to signed up account</t>
+  </si>
+  <si>
+    <t>1. go to command prompt</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\Pivotal-cloud-foundry&gt;cf login
+API endpoint&gt; https://api.run.pivotal.io
+Email&gt; ascitalk@gmail.com
+Password&gt;
+Authenticating...
+OK
+Targeted org ascitalk-org
+Targeted space development
+API endpoint:   https://api.run.pivotal.io (API version: 2.82.0)
+User:           ascitalk@gmail.com
+Org:            ascitalk-org
+Space:          development</t>
+  </si>
+  <si>
+    <t>Designing for Paas (Twelve Factor App)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twelve factor app: what are sort of application characteristics, architectural considerations that make an application really run really well on a PaaS. </t>
+  </si>
+  <si>
+    <t>1. Code is version controlled
+2. Dependencies are declared and isolated
+3. Configuration is stored in the environment
+4. Backing Services as attached resources</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +535,14 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -496,7 +629,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -513,6 +646,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -520,6 +661,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -815,11 +959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -835,17 +979,24 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>1</v>
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="CC!A1" display="Cloud Computing - General Defintions"/>
+    <hyperlink ref="A3" location="GC!A1" display="Google Cloud (GC)"/>
+    <hyperlink ref="A4" location="CF!A1" display="Cloud Foundry (CF)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -855,9 +1006,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -868,371 +1019,371 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="9"/>
+      <c r="A2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2" ht="75">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="105">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="120">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="135">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="105">
       <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30">
       <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90">
       <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="75">
       <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="75">
       <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
       <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="60">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="45">
       <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="75">
       <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="5" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="10"/>
+      <c r="B22" s="14"/>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30">
       <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="30">
       <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="30">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="30">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="30">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="30">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30">
       <c r="A30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="60">
       <c r="A31" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="60">
       <c r="A32" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="45">
       <c r="A33" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="60">
       <c r="A34" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="60">
       <c r="A35" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="45">
       <c r="A36" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="60">
       <c r="A37" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="60">
       <c r="A38" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
       <c r="A39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>75</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="90">
       <c r="A42" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="75">
       <c r="A43" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="60">
       <c r="A44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="30">
       <c r="A45" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="45">
       <c r="A46" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1250,11 +1401,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1263,29 +1414,152 @@
     <col min="2" max="2" width="116.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="9"/>
+      <c r="B2" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B1" location="'Google Cloud'!A2" display="Up"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="68.7109375" customWidth="1"/>
+    <col min="2" max="2" width="118.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1">
+      <c r="A2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2" ht="45">
+      <c r="A3" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="75">
+      <c r="A4" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45">
+      <c r="A6" s="15"/>
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14"/>
+      <c r="B9" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="225">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30">
+      <c r="A12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="60">
+      <c r="B13" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Topics!A4" display="Topics"/>
+    <hyperlink ref="B1" location="CF!A2" display="Up"/>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/Definitions/o-Definitions-Cloud-Computing.xlsx
+++ b/Definitions/o-Definitions-Cloud-Computing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
   <si>
     <t>Topic</t>
   </si>
@@ -501,6 +501,12 @@
 2. Dependencies are declared and isolated
 3. Configuration is stored in the environment
 4. Backing Services as attached resources</t>
+  </si>
+  <si>
+    <t>Heroku</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Heroku</t>
   </si>
 </sst>
 </file>
@@ -629,7 +635,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -654,6 +660,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -959,11 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -972,24 +979,32 @@
     <col min="2" max="2" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -997,6 +1012,7 @@
     <hyperlink ref="A2" location="CC!A1" display="Cloud Computing - General Defintions"/>
     <hyperlink ref="A3" location="GC!A1" display="Google Cloud (GC)"/>
     <hyperlink ref="A4" location="CF!A1" display="Cloud Foundry (CF)"/>
+    <hyperlink ref="B5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1026,10 +1042,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" ht="75">
       <c r="A3" t="s">
@@ -1184,10 +1200,10 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:2" ht="30">
       <c r="A23" t="s">
@@ -1423,10 +1439,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1444,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:A7"/>
     </sheetView>
@@ -1464,10 +1480,10 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2" ht="45">
       <c r="A3" s="8" t="s">
@@ -1486,7 +1502,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1494,19 +1510,19 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="45">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="5" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30">
-      <c r="A7" s="15"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="5" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="10" t="s">
@@ -1514,13 +1530,13 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="11" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1528,7 +1544,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="225">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>107</v>
       </c>
